--- a/R/SS-N 2017_10_04 Completed (House 14)_newcleaned.xlsx
+++ b/R/SS-N 2017_10_04 Completed (House 14)_newcleaned.xlsx
@@ -5,10 +5,10 @@
   <workbookPr hidePivotFieldList="1" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yeozy\Documents\Yale-NUS\Y3S1\UROPS\Data\R\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yeozy\Documents\Yale-NUS\Y3S1\UROPS\UROPS\R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{EA48AFE7-D382-4233-B483-CFEE24EDD27F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A69A33D4-56FB-41B5-B346-6F89F7B0C3F7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22" yWindow="0" windowWidth="28778" windowHeight="16350" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
   </definedNames>
   <calcPr calcId="179017" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId7"/>
+    <pivotCache cacheId="3" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -11952,7 +11952,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="PivotTable9" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="PivotTable9" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
   <location ref="A3:P11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="20">
     <pivotField showAll="0"/>
@@ -12106,7 +12106,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0500-000000000000}" name="PivotTable11" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0500-000000000000}" name="PivotTable11" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
   <location ref="A3:AP11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="20">
     <pivotField showAll="0"/>
@@ -32719,10 +32719,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:T362"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E347" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="M312" sqref="A1:T362"/>
+    <sheetView tabSelected="1" topLeftCell="D299" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="M317" sqref="H317:M317"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="16.100000000000001" x14ac:dyDescent="0.35"/>
@@ -32811,7 +32812,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" s="24">
         <v>43012</v>
       </c>
@@ -32850,7 +32851,7 @@
       <c r="S2" s="25"/>
       <c r="T2" s="25"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" s="24">
         <v>43012</v>
       </c>
@@ -32891,7 +32892,7 @@
       <c r="S3" s="25"/>
       <c r="T3" s="25"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" s="24">
         <v>43012</v>
       </c>
@@ -32977,7 +32978,7 @@
       <c r="S5" s="25"/>
       <c r="T5" s="25"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" s="24">
         <v>43012</v>
       </c>
@@ -33016,7 +33017,7 @@
       <c r="S6" s="25"/>
       <c r="T6" s="25"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" s="24">
         <v>43012</v>
       </c>
@@ -33057,7 +33058,7 @@
       <c r="S7" s="25"/>
       <c r="T7" s="25"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" s="24">
         <v>43012</v>
       </c>
@@ -33143,7 +33144,7 @@
       <c r="S9" s="25"/>
       <c r="T9" s="25"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" s="24">
         <v>43012</v>
       </c>
@@ -33227,7 +33228,7 @@
       <c r="S11" s="25"/>
       <c r="T11" s="25"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" s="24">
         <v>43012</v>
       </c>
@@ -33266,7 +33267,7 @@
       <c r="S12" s="25"/>
       <c r="T12" s="25"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" s="24">
         <v>43012</v>
       </c>
@@ -33352,7 +33353,7 @@
       <c r="S14" s="25"/>
       <c r="T14" s="25"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" s="24">
         <v>43012</v>
       </c>
@@ -33391,7 +33392,7 @@
       <c r="S15" s="25"/>
       <c r="T15" s="25"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" s="24">
         <v>43012</v>
       </c>
@@ -33475,7 +33476,7 @@
       <c r="S17" s="25"/>
       <c r="T17" s="25"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" s="24">
         <v>43012</v>
       </c>
@@ -33514,7 +33515,7 @@
       <c r="S18" s="25"/>
       <c r="T18" s="25"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" s="24">
         <v>43012</v>
       </c>
@@ -33553,7 +33554,7 @@
       <c r="S19" s="25"/>
       <c r="T19" s="25"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" s="24">
         <v>43012</v>
       </c>
@@ -33637,7 +33638,7 @@
       <c r="S21" s="25"/>
       <c r="T21" s="25"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" s="24">
         <v>43012</v>
       </c>
@@ -33721,7 +33722,7 @@
       <c r="S23" s="25"/>
       <c r="T23" s="25"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" s="24">
         <v>43012</v>
       </c>
@@ -33850,7 +33851,7 @@
       <c r="S26" s="25"/>
       <c r="T26" s="25"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" s="24">
         <v>43012</v>
       </c>
@@ -33934,7 +33935,7 @@
       <c r="S28" s="25"/>
       <c r="T28" s="25"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" s="24">
         <v>43012</v>
       </c>
@@ -34020,7 +34021,7 @@
       <c r="S30" s="25"/>
       <c r="T30" s="25"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" s="24">
         <v>43012</v>
       </c>
@@ -34104,7 +34105,7 @@
       <c r="S32" s="25"/>
       <c r="T32" s="25"/>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" s="24">
         <v>43012</v>
       </c>
@@ -34188,7 +34189,7 @@
       <c r="S34" s="25"/>
       <c r="T34" s="25"/>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" s="24">
         <v>43012</v>
       </c>
@@ -34227,7 +34228,7 @@
       <c r="S35" s="25"/>
       <c r="T35" s="25"/>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" s="24">
         <v>43012</v>
       </c>
@@ -34313,7 +34314,7 @@
       <c r="S37" s="25"/>
       <c r="T37" s="25"/>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" s="24">
         <v>43012</v>
       </c>
@@ -34397,7 +34398,7 @@
       <c r="S39" s="25"/>
       <c r="T39" s="25"/>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" s="24">
         <v>43012</v>
       </c>
@@ -34483,7 +34484,7 @@
       <c r="S41" s="25"/>
       <c r="T41" s="25"/>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" s="24">
         <v>43012</v>
       </c>
@@ -34567,7 +34568,7 @@
       <c r="S43" s="25"/>
       <c r="T43" s="25"/>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" s="24">
         <v>43012</v>
       </c>
@@ -34606,7 +34607,7 @@
       <c r="S44" s="25"/>
       <c r="T44" s="25"/>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" s="24">
         <v>43012</v>
       </c>
@@ -34647,7 +34648,7 @@
       <c r="S45" s="25"/>
       <c r="T45" s="25"/>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" s="24">
         <v>43012</v>
       </c>
@@ -34688,7 +34689,7 @@
       <c r="S46" s="25"/>
       <c r="T46" s="25"/>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" s="24">
         <v>43012</v>
       </c>
@@ -34776,7 +34777,7 @@
       <c r="S48" s="25"/>
       <c r="T48" s="25"/>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" s="24">
         <v>43012</v>
       </c>
@@ -34862,7 +34863,7 @@
       <c r="S50" s="25"/>
       <c r="T50" s="25"/>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" s="24">
         <v>43012</v>
       </c>
@@ -34995,7 +34996,7 @@
       <c r="S53" s="25"/>
       <c r="T53" s="25"/>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" s="24">
         <v>43012</v>
       </c>
@@ -35081,7 +35082,7 @@
       <c r="S55" s="25"/>
       <c r="T55" s="25"/>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" s="24">
         <v>43012</v>
       </c>
@@ -35120,7 +35121,7 @@
       <c r="S56" s="25"/>
       <c r="T56" s="25"/>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" s="24">
         <v>43012</v>
       </c>
@@ -35159,7 +35160,7 @@
       <c r="S57" s="25"/>
       <c r="T57" s="25"/>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" s="24">
         <v>43012</v>
       </c>
@@ -35243,7 +35244,7 @@
       <c r="S59" s="25"/>
       <c r="T59" s="25"/>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" s="24">
         <v>43012</v>
       </c>
@@ -35282,7 +35283,7 @@
       <c r="S60" s="25"/>
       <c r="T60" s="25"/>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" s="24">
         <v>43012</v>
       </c>
@@ -35321,7 +35322,7 @@
       <c r="S61" s="25"/>
       <c r="T61" s="25"/>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" s="24">
         <v>43012</v>
       </c>
@@ -35355,7 +35356,7 @@
       <c r="S62" s="25"/>
       <c r="T62" s="25"/>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" s="24">
         <v>43012</v>
       </c>
@@ -35394,7 +35395,7 @@
       <c r="S63" s="25"/>
       <c r="T63" s="25"/>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" s="24">
         <v>43012</v>
       </c>
@@ -35433,7 +35434,7 @@
       <c r="S64" s="25"/>
       <c r="T64" s="25"/>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" s="24">
         <v>43012</v>
       </c>
@@ -35521,7 +35522,7 @@
       <c r="S66" s="25"/>
       <c r="T66" s="25"/>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" s="24">
         <v>43012</v>
       </c>
@@ -35560,7 +35561,7 @@
       <c r="S67" s="25"/>
       <c r="T67" s="25"/>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" s="24">
         <v>43012</v>
       </c>
@@ -35599,7 +35600,7 @@
       <c r="S68" s="25"/>
       <c r="T68" s="25"/>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" s="24">
         <v>43012</v>
       </c>
@@ -35687,7 +35688,7 @@
       <c r="S70" s="25"/>
       <c r="T70" s="25"/>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" s="24">
         <v>43012</v>
       </c>
@@ -35726,7 +35727,7 @@
       <c r="S71" s="25"/>
       <c r="T71" s="25"/>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" s="24">
         <v>43012</v>
       </c>
@@ -35814,7 +35815,7 @@
       <c r="S73" s="25"/>
       <c r="T73" s="25"/>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" s="24">
         <v>43012</v>
       </c>
@@ -35853,7 +35854,7 @@
       <c r="S74" s="25"/>
       <c r="T74" s="25"/>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" s="24">
         <v>43012</v>
       </c>
@@ -35941,7 +35942,7 @@
       <c r="S76" s="25"/>
       <c r="T76" s="25"/>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" s="24">
         <v>43012</v>
       </c>
@@ -35982,7 +35983,7 @@
       <c r="S77" s="25"/>
       <c r="T77" s="25"/>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" s="24">
         <v>43012</v>
       </c>
@@ -36021,7 +36022,7 @@
       <c r="S78" s="25"/>
       <c r="T78" s="25"/>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" s="24">
         <v>43012</v>
       </c>
@@ -36060,7 +36061,7 @@
       <c r="S79" s="25"/>
       <c r="T79" s="25"/>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" s="24">
         <v>43012</v>
       </c>
@@ -36148,7 +36149,7 @@
       <c r="S81" s="25"/>
       <c r="T81" s="25"/>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82" s="24">
         <v>43012</v>
       </c>
@@ -36334,7 +36335,7 @@
       <c r="S85" s="25"/>
       <c r="T85" s="25"/>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" s="24">
         <v>43012</v>
       </c>
@@ -36373,7 +36374,7 @@
       <c r="S86" s="25"/>
       <c r="T86" s="25"/>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" s="24">
         <v>43012</v>
       </c>
@@ -36412,7 +36413,7 @@
       <c r="S87" s="25"/>
       <c r="T87" s="25"/>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" s="24">
         <v>43012</v>
       </c>
@@ -36451,7 +36452,7 @@
       <c r="S88" s="25"/>
       <c r="T88" s="25"/>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89" s="24">
         <v>43012</v>
       </c>
@@ -36490,7 +36491,7 @@
       <c r="S89" s="25"/>
       <c r="T89" s="25"/>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" s="24">
         <v>43012</v>
       </c>
@@ -36576,7 +36577,7 @@
       <c r="S91" s="25"/>
       <c r="T91" s="25"/>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92" s="24">
         <v>43012</v>
       </c>
@@ -36664,7 +36665,7 @@
       <c r="S93" s="25"/>
       <c r="T93" s="25"/>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94" s="24">
         <v>43012</v>
       </c>
@@ -36703,7 +36704,7 @@
       <c r="S94" s="25"/>
       <c r="T94" s="25"/>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A95" s="24">
         <v>43012</v>
       </c>
@@ -36791,7 +36792,7 @@
       <c r="S96" s="25"/>
       <c r="T96" s="25"/>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A97" s="24">
         <v>43012</v>
       </c>
@@ -36879,7 +36880,7 @@
       <c r="S98" s="25"/>
       <c r="T98" s="25"/>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A99" s="24">
         <v>43012</v>
       </c>
@@ -36918,7 +36919,7 @@
       <c r="S99" s="25"/>
       <c r="T99" s="25"/>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100" s="24">
         <v>43012</v>
       </c>
@@ -37006,7 +37007,7 @@
       <c r="S101" s="25"/>
       <c r="T101" s="25"/>
     </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A102" s="24">
         <v>43012</v>
       </c>
@@ -37092,7 +37093,7 @@
       <c r="S103" s="25"/>
       <c r="T103" s="25"/>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A104" s="24">
         <v>43012</v>
       </c>
@@ -37180,7 +37181,7 @@
       <c r="S105" s="25"/>
       <c r="T105" s="25"/>
     </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106" s="24">
         <v>43012</v>
       </c>
@@ -37219,7 +37220,7 @@
       <c r="S106" s="25"/>
       <c r="T106" s="25"/>
     </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A107" s="24">
         <v>43012</v>
       </c>
@@ -37307,7 +37308,7 @@
       <c r="S108" s="25"/>
       <c r="T108" s="25"/>
     </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A109" s="24">
         <v>43012</v>
       </c>
@@ -37395,7 +37396,7 @@
       <c r="S110" s="25"/>
       <c r="T110" s="25"/>
     </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A111" s="24">
         <v>43012</v>
       </c>
@@ -37483,7 +37484,7 @@
       <c r="S112" s="25"/>
       <c r="T112" s="25"/>
     </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A113" s="24">
         <v>43012</v>
       </c>
@@ -37522,7 +37523,7 @@
       <c r="S113" s="25"/>
       <c r="T113" s="25"/>
     </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A114" s="24">
         <v>43012</v>
       </c>
@@ -37610,7 +37611,7 @@
       <c r="S115" s="25"/>
       <c r="T115" s="25"/>
     </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A116" s="24">
         <v>43012</v>
       </c>
@@ -37649,7 +37650,7 @@
       <c r="S116" s="25"/>
       <c r="T116" s="25"/>
     </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A117" s="24">
         <v>43012</v>
       </c>
@@ -37737,7 +37738,7 @@
       <c r="S118" s="25"/>
       <c r="T118" s="25"/>
     </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A119" s="24">
         <v>43012</v>
       </c>
@@ -37778,7 +37779,7 @@
       <c r="S119" s="25"/>
       <c r="T119" s="25"/>
     </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A120" s="24">
         <v>43012</v>
       </c>
@@ -37866,7 +37867,7 @@
       <c r="S121" s="25"/>
       <c r="T121" s="25"/>
     </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A122" s="24">
         <v>43012</v>
       </c>
@@ -37954,7 +37955,7 @@
       <c r="S123" s="25"/>
       <c r="T123" s="25"/>
     </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A124" s="24">
         <v>43012</v>
       </c>
@@ -38042,7 +38043,7 @@
       <c r="S125" s="25"/>
       <c r="T125" s="25"/>
     </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A126" s="24">
         <v>43012</v>
       </c>
@@ -38081,7 +38082,7 @@
       <c r="S126" s="25"/>
       <c r="T126" s="25"/>
     </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A127" s="24">
         <v>43012</v>
       </c>
@@ -38120,7 +38121,7 @@
       <c r="S127" s="25"/>
       <c r="T127" s="25"/>
     </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A128" s="24">
         <v>43012</v>
       </c>
@@ -38159,7 +38160,7 @@
       <c r="S128" s="25"/>
       <c r="T128" s="25"/>
     </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A129" s="24">
         <v>43012</v>
       </c>
@@ -38198,7 +38199,7 @@
       <c r="S129" s="25"/>
       <c r="T129" s="25"/>
     </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A130" s="24">
         <v>43012</v>
       </c>
@@ -38237,7 +38238,7 @@
       <c r="S130" s="25"/>
       <c r="T130" s="25"/>
     </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A131" s="24">
         <v>43012</v>
       </c>
@@ -38276,7 +38277,7 @@
       <c r="S131" s="25"/>
       <c r="T131" s="25"/>
     </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A132" s="24">
         <v>43012</v>
       </c>
@@ -38315,7 +38316,7 @@
       <c r="S132" s="25"/>
       <c r="T132" s="25"/>
     </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A133" s="24">
         <v>43012</v>
       </c>
@@ -38354,7 +38355,7 @@
       <c r="S133" s="25"/>
       <c r="T133" s="25"/>
     </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A134" s="24">
         <v>43012</v>
       </c>
@@ -38442,7 +38443,7 @@
       <c r="S135" s="25"/>
       <c r="T135" s="25"/>
     </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A136" s="24">
         <v>43012</v>
       </c>
@@ -38481,7 +38482,7 @@
       <c r="S136" s="25"/>
       <c r="T136" s="25"/>
     </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A137" s="24">
         <v>43012</v>
       </c>
@@ -38569,7 +38570,7 @@
       <c r="S138" s="25"/>
       <c r="T138" s="25"/>
     </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A139" s="24">
         <v>43012</v>
       </c>
@@ -38653,7 +38654,7 @@
       <c r="S140" s="25"/>
       <c r="T140" s="25"/>
     </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A141" s="24">
         <v>43012</v>
       </c>
@@ -38692,7 +38693,7 @@
       <c r="S141" s="25"/>
       <c r="T141" s="25"/>
     </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A142" s="24">
         <v>43012</v>
       </c>
@@ -38731,7 +38732,7 @@
       <c r="S142" s="25"/>
       <c r="T142" s="25"/>
     </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A143" s="24">
         <v>43012</v>
       </c>
@@ -38821,7 +38822,7 @@
       <c r="S144" s="25"/>
       <c r="T144" s="25"/>
     </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A145" s="24">
         <v>43012</v>
       </c>
@@ -38860,7 +38861,7 @@
       <c r="S145" s="25"/>
       <c r="T145" s="25"/>
     </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A146" s="24">
         <v>43012</v>
       </c>
@@ -38901,7 +38902,7 @@
       <c r="S146" s="25"/>
       <c r="T146" s="25"/>
     </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A147" s="24">
         <v>43012</v>
       </c>
@@ -38940,7 +38941,7 @@
       <c r="S147" s="25"/>
       <c r="T147" s="25"/>
     </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A148" s="24">
         <v>43012</v>
       </c>
@@ -39028,7 +39029,7 @@
       <c r="S149" s="25"/>
       <c r="T149" s="25"/>
     </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A150" s="24">
         <v>43012</v>
       </c>
@@ -39067,7 +39068,7 @@
       <c r="S150" s="25"/>
       <c r="T150" s="25"/>
     </row>
-    <row r="151" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A151" s="24">
         <v>43012</v>
       </c>
@@ -39106,7 +39107,7 @@
       <c r="S151" s="25"/>
       <c r="T151" s="25"/>
     </row>
-    <row r="152" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A152" s="24">
         <v>43012</v>
       </c>
@@ -39145,7 +39146,7 @@
       <c r="S152" s="25"/>
       <c r="T152" s="25"/>
     </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A153" s="24">
         <v>43012</v>
       </c>
@@ -39184,7 +39185,7 @@
       <c r="S153" s="25"/>
       <c r="T153" s="25"/>
     </row>
-    <row r="154" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A154" s="24">
         <v>43012</v>
       </c>
@@ -39272,7 +39273,7 @@
       <c r="S155" s="25"/>
       <c r="T155" s="25"/>
     </row>
-    <row r="156" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A156" s="24">
         <v>43012</v>
       </c>
@@ -39311,7 +39312,7 @@
       <c r="S156" s="25"/>
       <c r="T156" s="25"/>
     </row>
-    <row r="157" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A157" s="24">
         <v>43012</v>
       </c>
@@ -39399,7 +39400,7 @@
       <c r="S158" s="25"/>
       <c r="T158" s="25"/>
     </row>
-    <row r="159" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A159" s="24">
         <v>43012</v>
       </c>
@@ -39438,7 +39439,7 @@
       <c r="S159" s="25"/>
       <c r="T159" s="25"/>
     </row>
-    <row r="160" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A160" s="24">
         <v>43012</v>
       </c>
@@ -39477,7 +39478,7 @@
       <c r="S160" s="25"/>
       <c r="T160" s="25"/>
     </row>
-    <row r="161" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A161" s="24">
         <v>43012</v>
       </c>
@@ -39511,7 +39512,7 @@
       <c r="S161" s="25"/>
       <c r="T161" s="25"/>
     </row>
-    <row r="162" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A162" s="24">
         <v>43012</v>
       </c>
@@ -39550,7 +39551,7 @@
       <c r="S162" s="25"/>
       <c r="T162" s="25"/>
     </row>
-    <row r="163" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A163" s="24">
         <v>43012</v>
       </c>
@@ -39591,7 +39592,7 @@
       <c r="S163" s="25"/>
       <c r="T163" s="25"/>
     </row>
-    <row r="164" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A164" s="24">
         <v>43012</v>
       </c>
@@ -39630,7 +39631,7 @@
       <c r="S164" s="25"/>
       <c r="T164" s="25"/>
     </row>
-    <row r="165" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A165" s="24">
         <v>43012</v>
       </c>
@@ -39669,7 +39670,7 @@
       <c r="S165" s="25"/>
       <c r="T165" s="25"/>
     </row>
-    <row r="166" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A166" s="24">
         <v>43012</v>
       </c>
@@ -39755,7 +39756,7 @@
       <c r="S167" s="25"/>
       <c r="T167" s="25"/>
     </row>
-    <row r="168" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A168" s="24">
         <v>43012</v>
       </c>
@@ -39794,7 +39795,7 @@
       <c r="S168" s="25"/>
       <c r="T168" s="25"/>
     </row>
-    <row r="169" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A169" s="24">
         <v>43012</v>
       </c>
@@ -39833,7 +39834,7 @@
       <c r="S169" s="25"/>
       <c r="T169" s="25"/>
     </row>
-    <row r="170" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A170" s="24">
         <v>43012</v>
       </c>
@@ -39872,7 +39873,7 @@
       <c r="S170" s="25"/>
       <c r="T170" s="25"/>
     </row>
-    <row r="171" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A171" s="24">
         <v>43012</v>
       </c>
@@ -39911,7 +39912,7 @@
       <c r="S171" s="25"/>
       <c r="T171" s="25"/>
     </row>
-    <row r="172" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A172" s="24">
         <v>43012</v>
       </c>
@@ -39997,7 +39998,7 @@
       <c r="S173" s="25"/>
       <c r="T173" s="25"/>
     </row>
-    <row r="174" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A174" s="24">
         <v>43012</v>
       </c>
@@ -40036,7 +40037,7 @@
       <c r="S174" s="25"/>
       <c r="T174" s="25"/>
     </row>
-    <row r="175" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A175" s="24">
         <v>43012</v>
       </c>
@@ -40075,7 +40076,7 @@
       <c r="S175" s="25"/>
       <c r="T175" s="25"/>
     </row>
-    <row r="176" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A176" s="24">
         <v>43012</v>
       </c>
@@ -40208,7 +40209,7 @@
       <c r="S178" s="25"/>
       <c r="T178" s="25"/>
     </row>
-    <row r="179" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A179" s="24">
         <v>43012</v>
       </c>
@@ -40294,7 +40295,7 @@
       <c r="S180" s="25"/>
       <c r="T180" s="25"/>
     </row>
-    <row r="181" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A181" s="24">
         <v>43012</v>
       </c>
@@ -40380,7 +40381,7 @@
       <c r="S182" s="25"/>
       <c r="T182" s="25"/>
     </row>
-    <row r="183" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A183" s="24">
         <v>43012</v>
       </c>
@@ -40419,7 +40420,7 @@
       <c r="S183" s="25"/>
       <c r="T183" s="25"/>
     </row>
-    <row r="184" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A184" s="24">
         <v>43012</v>
       </c>
@@ -40458,7 +40459,7 @@
       <c r="S184" s="25"/>
       <c r="T184" s="25"/>
     </row>
-    <row r="185" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A185" s="24">
         <v>43012</v>
       </c>
@@ -40497,7 +40498,7 @@
       <c r="S185" s="25"/>
       <c r="T185" s="25"/>
     </row>
-    <row r="186" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A186" s="24">
         <v>43012</v>
       </c>
@@ -40536,7 +40537,7 @@
       <c r="S186" s="25"/>
       <c r="T186" s="25"/>
     </row>
-    <row r="187" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A187" s="24">
         <v>43012</v>
       </c>
@@ -40622,7 +40623,7 @@
       <c r="S188" s="25"/>
       <c r="T188" s="25"/>
     </row>
-    <row r="189" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A189" s="24">
         <v>43012</v>
       </c>
@@ -40708,7 +40709,7 @@
       <c r="S190" s="25"/>
       <c r="T190" s="25"/>
     </row>
-    <row r="191" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A191" s="24">
         <v>43012</v>
       </c>
@@ -40839,7 +40840,7 @@
       <c r="S193" s="25"/>
       <c r="T193" s="25"/>
     </row>
-    <row r="194" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A194" s="24">
         <v>43012</v>
       </c>
@@ -40925,7 +40926,7 @@
       <c r="S195" s="25"/>
       <c r="T195" s="25"/>
     </row>
-    <row r="196" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A196" s="24">
         <v>43012</v>
       </c>
@@ -41011,7 +41012,7 @@
       <c r="S197" s="25"/>
       <c r="T197" s="25"/>
     </row>
-    <row r="198" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A198" s="24">
         <v>43012</v>
       </c>
@@ -41050,7 +41051,7 @@
       <c r="S198" s="25"/>
       <c r="T198" s="25"/>
     </row>
-    <row r="199" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A199" s="24">
         <v>43012</v>
       </c>
@@ -41134,7 +41135,7 @@
       <c r="S200" s="25"/>
       <c r="T200" s="25"/>
     </row>
-    <row r="201" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A201" s="24">
         <v>43012</v>
       </c>
@@ -41173,7 +41174,7 @@
       <c r="S201" s="25"/>
       <c r="T201" s="25"/>
     </row>
-    <row r="202" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A202" s="24">
         <v>43012</v>
       </c>
@@ -41212,7 +41213,7 @@
       <c r="S202" s="25"/>
       <c r="T202" s="25"/>
     </row>
-    <row r="203" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A203" s="24">
         <v>43012</v>
       </c>
@@ -41298,7 +41299,7 @@
       <c r="S204" s="25"/>
       <c r="T204" s="25"/>
     </row>
-    <row r="205" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A205" s="24">
         <v>43012</v>
       </c>
@@ -41384,7 +41385,7 @@
       <c r="S206" s="25"/>
       <c r="T206" s="25"/>
     </row>
-    <row r="207" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A207" s="24">
         <v>43012</v>
       </c>
@@ -41423,7 +41424,7 @@
       <c r="S207" s="25"/>
       <c r="T207" s="25"/>
     </row>
-    <row r="208" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A208" s="24">
         <v>43012</v>
       </c>
@@ -41462,7 +41463,7 @@
       <c r="S208" s="25"/>
       <c r="T208" s="25"/>
     </row>
-    <row r="209" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A209" s="24">
         <v>43012</v>
       </c>
@@ -41501,7 +41502,7 @@
       <c r="S209" s="25"/>
       <c r="T209" s="25"/>
     </row>
-    <row r="210" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A210" s="24">
         <v>43012</v>
       </c>
@@ -41540,7 +41541,7 @@
       <c r="S210" s="25"/>
       <c r="T210" s="25"/>
     </row>
-    <row r="211" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A211" s="24">
         <v>43012</v>
       </c>
@@ -41579,7 +41580,7 @@
       <c r="S211" s="25"/>
       <c r="T211" s="25"/>
     </row>
-    <row r="212" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A212" s="24">
         <v>43012</v>
       </c>
@@ -41618,7 +41619,7 @@
       <c r="S212" s="25"/>
       <c r="T212" s="25"/>
     </row>
-    <row r="213" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A213" s="24">
         <v>43012</v>
       </c>
@@ -41704,7 +41705,7 @@
       <c r="S214" s="25"/>
       <c r="T214" s="25"/>
     </row>
-    <row r="215" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A215" s="24">
         <v>43012</v>
       </c>
@@ -41743,7 +41744,7 @@
       <c r="S215" s="25"/>
       <c r="T215" s="25"/>
     </row>
-    <row r="216" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A216" s="24">
         <v>43012</v>
       </c>
@@ -41782,7 +41783,7 @@
       <c r="S216" s="25"/>
       <c r="T216" s="25"/>
     </row>
-    <row r="217" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A217" s="24">
         <v>43012</v>
       </c>
@@ -41868,7 +41869,7 @@
       <c r="S218" s="25"/>
       <c r="T218" s="25"/>
     </row>
-    <row r="219" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A219" s="24">
         <v>43012</v>
       </c>
@@ -41907,7 +41908,7 @@
       <c r="S219" s="25"/>
       <c r="T219" s="25"/>
     </row>
-    <row r="220" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A220" s="24">
         <v>43012</v>
       </c>
@@ -41946,7 +41947,7 @@
       <c r="S220" s="25"/>
       <c r="T220" s="25"/>
     </row>
-    <row r="221" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A221" s="24">
         <v>43012</v>
       </c>
@@ -42032,7 +42033,7 @@
       <c r="S222" s="25"/>
       <c r="T222" s="25"/>
     </row>
-    <row r="223" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A223" s="24">
         <v>43012</v>
       </c>
@@ -42118,7 +42119,7 @@
       <c r="S224" s="25"/>
       <c r="T224" s="25"/>
     </row>
-    <row r="225" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A225" s="24">
         <v>43012</v>
       </c>
@@ -42157,7 +42158,7 @@
       <c r="S225" s="25"/>
       <c r="T225" s="25"/>
     </row>
-    <row r="226" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A226" s="24">
         <v>43012</v>
       </c>
@@ -42196,7 +42197,7 @@
       <c r="S226" s="25"/>
       <c r="T226" s="25"/>
     </row>
-    <row r="227" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A227" s="24">
         <v>43012</v>
       </c>
@@ -42280,7 +42281,7 @@
       <c r="S228" s="25"/>
       <c r="T228" s="25"/>
     </row>
-    <row r="229" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A229" s="24">
         <v>43012</v>
       </c>
@@ -42319,7 +42320,7 @@
       <c r="S229" s="25"/>
       <c r="T229" s="25"/>
     </row>
-    <row r="230" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A230" s="24">
         <v>43012</v>
       </c>
@@ -42358,7 +42359,7 @@
       <c r="S230" s="25"/>
       <c r="T230" s="25"/>
     </row>
-    <row r="231" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A231" s="24">
         <v>43012</v>
       </c>
@@ -42397,7 +42398,7 @@
       <c r="S231" s="25"/>
       <c r="T231" s="25"/>
     </row>
-    <row r="232" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A232" s="24">
         <v>43012</v>
       </c>
@@ -42436,7 +42437,7 @@
       <c r="S232" s="25"/>
       <c r="T232" s="25"/>
     </row>
-    <row r="233" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A233" s="24">
         <v>43012</v>
       </c>
@@ -42475,7 +42476,7 @@
       <c r="S233" s="25"/>
       <c r="T233" s="25"/>
     </row>
-    <row r="234" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A234" s="24">
         <v>43012</v>
       </c>
@@ -42514,7 +42515,7 @@
       <c r="S234" s="25"/>
       <c r="T234" s="25"/>
     </row>
-    <row r="235" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A235" s="24">
         <v>43012</v>
       </c>
@@ -42600,7 +42601,7 @@
       <c r="S236" s="25"/>
       <c r="T236" s="25"/>
     </row>
-    <row r="237" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A237" s="24">
         <v>43012</v>
       </c>
@@ -42731,7 +42732,7 @@
       <c r="S239" s="25"/>
       <c r="T239" s="25"/>
     </row>
-    <row r="240" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A240" s="24">
         <v>43012</v>
       </c>
@@ -42864,7 +42865,7 @@
       <c r="S242" s="25"/>
       <c r="T242" s="25"/>
     </row>
-    <row r="243" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A243" s="24">
         <v>43012</v>
       </c>
@@ -42950,7 +42951,7 @@
       <c r="S244" s="25"/>
       <c r="T244" s="25"/>
     </row>
-    <row r="245" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A245" s="24">
         <v>43012</v>
       </c>
@@ -43036,7 +43037,7 @@
       <c r="S246" s="25"/>
       <c r="T246" s="25"/>
     </row>
-    <row r="247" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A247" s="24">
         <v>43012</v>
       </c>
@@ -43122,7 +43123,7 @@
       <c r="S248" s="25"/>
       <c r="T248" s="25"/>
     </row>
-    <row r="249" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A249" s="24">
         <v>43012</v>
       </c>
@@ -43208,7 +43209,7 @@
       <c r="S250" s="25"/>
       <c r="T250" s="25"/>
     </row>
-    <row r="251" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A251" s="24">
         <v>43012</v>
       </c>
@@ -43294,7 +43295,7 @@
       <c r="S252" s="25"/>
       <c r="T252" s="25"/>
     </row>
-    <row r="253" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A253" s="24">
         <v>43012</v>
       </c>
@@ -43333,7 +43334,7 @@
       <c r="S253" s="25"/>
       <c r="T253" s="25"/>
     </row>
-    <row r="254" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A254" s="24">
         <v>43012</v>
       </c>
@@ -43372,7 +43373,7 @@
       <c r="S254" s="25"/>
       <c r="T254" s="25"/>
     </row>
-    <row r="255" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A255" s="24">
         <v>43012</v>
       </c>
@@ -43411,7 +43412,7 @@
       <c r="S255" s="25"/>
       <c r="T255" s="25"/>
     </row>
-    <row r="256" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A256" s="24">
         <v>43012</v>
       </c>
@@ -43448,7 +43449,7 @@
       <c r="S256" s="25"/>
       <c r="T256" s="25"/>
     </row>
-    <row r="257" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A257" s="24">
         <v>43012</v>
       </c>
@@ -43532,7 +43533,7 @@
       <c r="S258" s="25"/>
       <c r="T258" s="25"/>
     </row>
-    <row r="259" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A259" s="24">
         <v>43012</v>
       </c>
@@ -43616,7 +43617,7 @@
       <c r="S260" s="25"/>
       <c r="T260" s="25"/>
     </row>
-    <row r="261" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A261" s="24">
         <v>43012</v>
       </c>
@@ -43745,7 +43746,7 @@
       <c r="S263" s="25"/>
       <c r="T263" s="25"/>
     </row>
-    <row r="264" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A264" s="24">
         <v>43012</v>
       </c>
@@ -43784,7 +43785,7 @@
       <c r="S264" s="25"/>
       <c r="T264" s="25"/>
     </row>
-    <row r="265" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A265" s="24">
         <v>43012</v>
       </c>
@@ -43870,7 +43871,7 @@
       <c r="S266" s="25"/>
       <c r="T266" s="25"/>
     </row>
-    <row r="267" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A267" s="24">
         <v>43012</v>
       </c>
@@ -43954,7 +43955,7 @@
       <c r="S268" s="25"/>
       <c r="T268" s="25"/>
     </row>
-    <row r="269" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A269" s="24">
         <v>43012</v>
       </c>
@@ -44038,7 +44039,7 @@
       <c r="S270" s="25"/>
       <c r="T270" s="25"/>
     </row>
-    <row r="271" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A271" s="24">
         <v>43012</v>
       </c>
@@ -44122,7 +44123,7 @@
       <c r="S272" s="25"/>
       <c r="T272" s="25"/>
     </row>
-    <row r="273" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A273" s="24">
         <v>43012</v>
       </c>
@@ -44206,7 +44207,7 @@
       <c r="S274" s="25"/>
       <c r="T274" s="25"/>
     </row>
-    <row r="275" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A275" s="24">
         <v>43012</v>
       </c>
@@ -44245,7 +44246,7 @@
       <c r="S275" s="25"/>
       <c r="T275" s="25"/>
     </row>
-    <row r="276" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A276" s="24">
         <v>43012</v>
       </c>
@@ -44284,7 +44285,7 @@
       <c r="S276" s="25"/>
       <c r="T276" s="25"/>
     </row>
-    <row r="277" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A277" s="24">
         <v>43012</v>
       </c>
@@ -44368,7 +44369,7 @@
       <c r="S278" s="25"/>
       <c r="T278" s="25"/>
     </row>
-    <row r="279" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A279" s="24">
         <v>43012</v>
       </c>
@@ -44452,7 +44453,7 @@
       <c r="S280" s="25"/>
       <c r="T280" s="25"/>
     </row>
-    <row r="281" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A281" s="24">
         <v>43012</v>
       </c>
@@ -44491,7 +44492,7 @@
       <c r="S281" s="25"/>
       <c r="T281" s="25"/>
     </row>
-    <row r="282" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A282" s="24">
         <v>43012</v>
       </c>
@@ -44530,7 +44531,7 @@
       <c r="S282" s="25"/>
       <c r="T282" s="25"/>
     </row>
-    <row r="283" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A283" s="24">
         <v>43012</v>
       </c>
@@ -44569,7 +44570,7 @@
       <c r="S283" s="25"/>
       <c r="T283" s="25"/>
     </row>
-    <row r="284" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A284" s="24">
         <v>43012</v>
       </c>
@@ -44698,7 +44699,7 @@
       <c r="S286" s="25"/>
       <c r="T286" s="25"/>
     </row>
-    <row r="287" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A287" s="24">
         <v>43012</v>
       </c>
@@ -44737,7 +44738,7 @@
       <c r="S287" s="25"/>
       <c r="T287" s="25"/>
     </row>
-    <row r="288" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A288" s="24">
         <v>43012</v>
       </c>
@@ -44771,7 +44772,7 @@
       <c r="S288" s="25"/>
       <c r="T288" s="25"/>
     </row>
-    <row r="289" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A289" s="24">
         <v>43012</v>
       </c>
@@ -44855,7 +44856,7 @@
       <c r="S290" s="25"/>
       <c r="T290" s="25"/>
     </row>
-    <row r="291" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A291" s="24">
         <v>43012</v>
       </c>
@@ -44939,7 +44940,7 @@
       <c r="S292" s="25"/>
       <c r="T292" s="25"/>
     </row>
-    <row r="293" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A293" s="24">
         <v>43012</v>
       </c>
@@ -44978,7 +44979,7 @@
       <c r="S293" s="25"/>
       <c r="T293" s="25"/>
     </row>
-    <row r="294" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A294" s="24">
         <v>43012</v>
       </c>
@@ -45152,7 +45153,7 @@
       <c r="S297" s="25"/>
       <c r="T297" s="25"/>
     </row>
-    <row r="298" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A298" s="24">
         <v>43012</v>
       </c>
@@ -45236,7 +45237,7 @@
       <c r="S299" s="25"/>
       <c r="T299" s="25"/>
     </row>
-    <row r="300" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A300" s="24">
         <v>43012</v>
       </c>
@@ -45365,7 +45366,7 @@
       <c r="S302" s="25"/>
       <c r="T302" s="25"/>
     </row>
-    <row r="303" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A303" s="24">
         <v>43012</v>
       </c>
@@ -45449,7 +45450,7 @@
       <c r="S304" s="25"/>
       <c r="T304" s="25"/>
     </row>
-    <row r="305" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A305" s="24">
         <v>43012</v>
       </c>
@@ -45488,7 +45489,7 @@
       <c r="S305" s="25"/>
       <c r="T305" s="25"/>
     </row>
-    <row r="306" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A306" s="24">
         <v>43012</v>
       </c>
@@ -45529,7 +45530,7 @@
       <c r="S306" s="25"/>
       <c r="T306" s="25"/>
     </row>
-    <row r="307" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A307" s="24">
         <v>43012</v>
       </c>
@@ -45613,7 +45614,7 @@
       <c r="S308" s="25"/>
       <c r="T308" s="25"/>
     </row>
-    <row r="309" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A309" s="24">
         <v>43012</v>
       </c>
@@ -45697,7 +45698,7 @@
       <c r="S310" s="25"/>
       <c r="T310" s="25"/>
     </row>
-    <row r="311" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A311" s="24">
         <v>43012</v>
       </c>
@@ -45781,7 +45782,7 @@
       <c r="S312" s="25"/>
       <c r="T312" s="25"/>
     </row>
-    <row r="313" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A313" s="24">
         <v>43012</v>
       </c>
@@ -45865,7 +45866,7 @@
       <c r="S314" s="25"/>
       <c r="T314" s="25"/>
     </row>
-    <row r="315" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A315" s="24">
         <v>43012</v>
       </c>
@@ -45992,7 +45993,7 @@
       <c r="S317" s="25"/>
       <c r="T317" s="25"/>
     </row>
-    <row r="318" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A318" s="24">
         <v>43012</v>
       </c>
@@ -46076,7 +46077,7 @@
       <c r="S319" s="25"/>
       <c r="T319" s="25"/>
     </row>
-    <row r="320" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A320" s="24">
         <v>43012</v>
       </c>
@@ -46115,7 +46116,7 @@
       <c r="S320" s="25"/>
       <c r="T320" s="25"/>
     </row>
-    <row r="321" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A321" s="24">
         <v>43012</v>
       </c>
@@ -46199,7 +46200,7 @@
       <c r="S322" s="25"/>
       <c r="T322" s="25"/>
     </row>
-    <row r="323" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A323" s="24">
         <v>43012</v>
       </c>
@@ -46238,7 +46239,7 @@
       <c r="S323" s="25"/>
       <c r="T323" s="25"/>
     </row>
-    <row r="324" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A324" s="24">
         <v>43012</v>
       </c>
@@ -46277,7 +46278,7 @@
       <c r="S324" s="25"/>
       <c r="T324" s="25"/>
     </row>
-    <row r="325" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A325" s="24">
         <v>43012</v>
       </c>
@@ -46361,7 +46362,7 @@
       <c r="S326" s="25"/>
       <c r="T326" s="25"/>
     </row>
-    <row r="327" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A327" s="24">
         <v>43012</v>
       </c>
@@ -46445,7 +46446,7 @@
       <c r="S328" s="25"/>
       <c r="T328" s="25"/>
     </row>
-    <row r="329" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A329" s="24">
         <v>43012</v>
       </c>
@@ -46484,7 +46485,7 @@
       <c r="S329" s="25"/>
       <c r="T329" s="25"/>
     </row>
-    <row r="330" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A330" s="24">
         <v>43012</v>
       </c>
@@ -46568,7 +46569,7 @@
       <c r="S331" s="25"/>
       <c r="T331" s="25"/>
     </row>
-    <row r="332" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A332" s="24">
         <v>43012</v>
       </c>
@@ -46652,7 +46653,7 @@
       <c r="S333" s="25"/>
       <c r="T333" s="25"/>
     </row>
-    <row r="334" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A334" s="24">
         <v>43012</v>
       </c>
@@ -46691,7 +46692,7 @@
       <c r="S334" s="25"/>
       <c r="T334" s="25"/>
     </row>
-    <row r="335" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A335" s="24">
         <v>43012</v>
       </c>
@@ -46732,7 +46733,7 @@
       <c r="S335" s="25"/>
       <c r="T335" s="25"/>
     </row>
-    <row r="336" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A336" s="24">
         <v>43012</v>
       </c>
@@ -46816,7 +46817,7 @@
       <c r="S337" s="25"/>
       <c r="T337" s="25"/>
     </row>
-    <row r="338" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A338" s="24">
         <v>43012</v>
       </c>
@@ -46900,7 +46901,7 @@
       <c r="S339" s="25"/>
       <c r="T339" s="25"/>
     </row>
-    <row r="340" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A340" s="24">
         <v>43012</v>
       </c>
@@ -46939,7 +46940,7 @@
       <c r="S340" s="25"/>
       <c r="T340" s="25"/>
     </row>
-    <row r="341" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A341" s="24">
         <v>43012</v>
       </c>
@@ -46982,7 +46983,7 @@
       <c r="S341" s="25"/>
       <c r="T341" s="25"/>
     </row>
-    <row r="342" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A342" s="24">
         <v>43012</v>
       </c>
@@ -47066,7 +47067,7 @@
       <c r="S343" s="25"/>
       <c r="T343" s="25"/>
     </row>
-    <row r="344" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A344" s="24">
         <v>43012</v>
       </c>
@@ -47105,7 +47106,7 @@
       <c r="S344" s="25"/>
       <c r="T344" s="25"/>
     </row>
-    <row r="345" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A345" s="24">
         <v>43012</v>
       </c>
@@ -47144,7 +47145,7 @@
       <c r="S345" s="25"/>
       <c r="T345" s="25"/>
     </row>
-    <row r="346" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A346" s="24">
         <v>43012</v>
       </c>
@@ -47228,7 +47229,7 @@
       <c r="S347" s="25"/>
       <c r="T347" s="25"/>
     </row>
-    <row r="348" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A348" s="24">
         <v>43012</v>
       </c>
@@ -47312,7 +47313,7 @@
       <c r="S349" s="25"/>
       <c r="T349" s="25"/>
     </row>
-    <row r="350" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A350" s="24">
         <v>43012</v>
       </c>
@@ -47351,7 +47352,7 @@
       <c r="S350" s="25"/>
       <c r="T350" s="25"/>
     </row>
-    <row r="351" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A351" s="24">
         <v>43012</v>
       </c>
@@ -47390,7 +47391,7 @@
       <c r="S351" s="25"/>
       <c r="T351" s="25"/>
     </row>
-    <row r="352" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A352" s="24">
         <v>43012</v>
       </c>
@@ -47474,7 +47475,7 @@
       <c r="S353" s="25"/>
       <c r="T353" s="25"/>
     </row>
-    <row r="354" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A354" s="24">
         <v>43012</v>
       </c>
@@ -47558,7 +47559,7 @@
       <c r="S355" s="25"/>
       <c r="T355" s="25"/>
     </row>
-    <row r="356" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A356" s="24">
         <v>43012</v>
       </c>
@@ -47642,7 +47643,7 @@
       <c r="S357" s="25"/>
       <c r="T357" s="25"/>
     </row>
-    <row r="358" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A358" s="24">
         <v>43012</v>
       </c>
@@ -47726,7 +47727,7 @@
       <c r="S359" s="25"/>
       <c r="T359" s="25"/>
     </row>
-    <row r="360" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A360" s="24">
         <v>43012</v>
       </c>
@@ -47765,7 +47766,7 @@
       <c r="S360" s="25"/>
       <c r="T360" s="25"/>
     </row>
-    <row r="361" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A361" s="24">
         <v>43012</v>
       </c>
@@ -47799,14 +47800,20 @@
       <c r="S361" s="25"/>
       <c r="T361" s="25"/>
     </row>
-    <row r="362" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="G362" s="25">
         <f>SUM(G2:G361)</f>
         <v>10000</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:T362" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
+  <autoFilter ref="A1:T362" xr:uid="{00000000-0009-0000-0000-000003000000}">
+    <filterColumn colId="7">
+      <filters>
+        <filter val="HC"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>

--- a/R/SS-N 2017_10_04 Completed (House 14)_newcleaned.xlsx
+++ b/R/SS-N 2017_10_04 Completed (House 14)_newcleaned.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yeozy\Documents\Yale-NUS\Y3S1\UROPS\UROPS\R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A69A33D4-56FB-41B5-B346-6F89F7B0C3F7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B7593791-220F-407A-A7DF-4EF46697BDD6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22" yWindow="0" windowWidth="28778" windowHeight="16350" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
   </definedNames>
   <calcPr calcId="179017" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId7"/>
+    <pivotCache cacheId="0" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4625" uniqueCount="1130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4626" uniqueCount="1130">
   <si>
     <t>Date/Time</t>
   </si>
@@ -3506,6 +3506,7 @@
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3523,6 +3524,7 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3615,12 +3617,14 @@
       <sz val="12"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -3693,7 +3697,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3820,6 +3824,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="23">
     <cellStyle name="Excel Built-in Explanatory Text" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -11952,7 +11959,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="PivotTable9" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="PivotTable9" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
   <location ref="A3:P11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="20">
     <pivotField showAll="0"/>
@@ -12106,7 +12113,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0500-000000000000}" name="PivotTable11" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0500-000000000000}" name="PivotTable11" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
   <location ref="A3:AP11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="20">
     <pivotField showAll="0"/>
@@ -32723,7 +32730,7 @@
   <dimension ref="A1:T362"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D299" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="M317" sqref="H317:M317"/>
+      <selection activeCell="M331" sqref="M331"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="16.100000000000001" x14ac:dyDescent="0.35"/>
@@ -45984,7 +45991,9 @@
         <v>922</v>
       </c>
       <c r="L317" s="25"/>
-      <c r="M317" s="36"/>
+      <c r="M317" s="43" t="s">
+        <v>954</v>
+      </c>
       <c r="N317" s="25"/>
       <c r="O317" s="25"/>
       <c r="P317" s="25"/>

--- a/R/SS-N 2017_10_04 Completed (House 14)_newcleaned.xlsx
+++ b/R/SS-N 2017_10_04 Completed (House 14)_newcleaned.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yeozy\Documents\Yale-NUS\Y3S1\UROPS\UROPS\R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B7593791-220F-407A-A7DF-4EF46697BDD6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0B5DADBF-8975-40FE-9CB0-89C5D558B24F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22" yWindow="0" windowWidth="28778" windowHeight="16350" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32726,11 +32726,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:T362"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D299" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="M331" sqref="M331"/>
+    <sheetView tabSelected="1" topLeftCell="D351" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="I357" sqref="I357"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="16.100000000000001" x14ac:dyDescent="0.35"/>
@@ -32819,7 +32818,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" s="24">
         <v>43012</v>
       </c>
@@ -32858,7 +32857,7 @@
       <c r="S2" s="25"/>
       <c r="T2" s="25"/>
     </row>
-    <row r="3" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" s="24">
         <v>43012</v>
       </c>
@@ -32899,7 +32898,7 @@
       <c r="S3" s="25"/>
       <c r="T3" s="25"/>
     </row>
-    <row r="4" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" s="24">
         <v>43012</v>
       </c>
@@ -32985,7 +32984,7 @@
       <c r="S5" s="25"/>
       <c r="T5" s="25"/>
     </row>
-    <row r="6" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" s="24">
         <v>43012</v>
       </c>
@@ -33024,7 +33023,7 @@
       <c r="S6" s="25"/>
       <c r="T6" s="25"/>
     </row>
-    <row r="7" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7" s="24">
         <v>43012</v>
       </c>
@@ -33065,7 +33064,7 @@
       <c r="S7" s="25"/>
       <c r="T7" s="25"/>
     </row>
-    <row r="8" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8" s="24">
         <v>43012</v>
       </c>
@@ -33151,7 +33150,7 @@
       <c r="S9" s="25"/>
       <c r="T9" s="25"/>
     </row>
-    <row r="10" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10" s="24">
         <v>43012</v>
       </c>
@@ -33235,7 +33234,7 @@
       <c r="S11" s="25"/>
       <c r="T11" s="25"/>
     </row>
-    <row r="12" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A12" s="24">
         <v>43012</v>
       </c>
@@ -33274,7 +33273,7 @@
       <c r="S12" s="25"/>
       <c r="T12" s="25"/>
     </row>
-    <row r="13" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A13" s="24">
         <v>43012</v>
       </c>
@@ -33360,7 +33359,7 @@
       <c r="S14" s="25"/>
       <c r="T14" s="25"/>
     </row>
-    <row r="15" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A15" s="24">
         <v>43012</v>
       </c>
@@ -33399,7 +33398,7 @@
       <c r="S15" s="25"/>
       <c r="T15" s="25"/>
     </row>
-    <row r="16" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A16" s="24">
         <v>43012</v>
       </c>
@@ -33483,7 +33482,7 @@
       <c r="S17" s="25"/>
       <c r="T17" s="25"/>
     </row>
-    <row r="18" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A18" s="24">
         <v>43012</v>
       </c>
@@ -33522,7 +33521,7 @@
       <c r="S18" s="25"/>
       <c r="T18" s="25"/>
     </row>
-    <row r="19" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A19" s="24">
         <v>43012</v>
       </c>
@@ -33561,7 +33560,7 @@
       <c r="S19" s="25"/>
       <c r="T19" s="25"/>
     </row>
-    <row r="20" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A20" s="24">
         <v>43012</v>
       </c>
@@ -33645,7 +33644,7 @@
       <c r="S21" s="25"/>
       <c r="T21" s="25"/>
     </row>
-    <row r="22" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A22" s="24">
         <v>43012</v>
       </c>
@@ -33729,7 +33728,7 @@
       <c r="S23" s="25"/>
       <c r="T23" s="25"/>
     </row>
-    <row r="24" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A24" s="24">
         <v>43012</v>
       </c>
@@ -33858,7 +33857,7 @@
       <c r="S26" s="25"/>
       <c r="T26" s="25"/>
     </row>
-    <row r="27" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A27" s="24">
         <v>43012</v>
       </c>
@@ -33942,7 +33941,7 @@
       <c r="S28" s="25"/>
       <c r="T28" s="25"/>
     </row>
-    <row r="29" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A29" s="24">
         <v>43012</v>
       </c>
@@ -34028,7 +34027,7 @@
       <c r="S30" s="25"/>
       <c r="T30" s="25"/>
     </row>
-    <row r="31" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A31" s="24">
         <v>43012</v>
       </c>
@@ -34112,7 +34111,7 @@
       <c r="S32" s="25"/>
       <c r="T32" s="25"/>
     </row>
-    <row r="33" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A33" s="24">
         <v>43012</v>
       </c>
@@ -34196,7 +34195,7 @@
       <c r="S34" s="25"/>
       <c r="T34" s="25"/>
     </row>
-    <row r="35" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A35" s="24">
         <v>43012</v>
       </c>
@@ -34235,7 +34234,7 @@
       <c r="S35" s="25"/>
       <c r="T35" s="25"/>
     </row>
-    <row r="36" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A36" s="24">
         <v>43012</v>
       </c>
@@ -34321,7 +34320,7 @@
       <c r="S37" s="25"/>
       <c r="T37" s="25"/>
     </row>
-    <row r="38" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A38" s="24">
         <v>43012</v>
       </c>
@@ -34405,7 +34404,7 @@
       <c r="S39" s="25"/>
       <c r="T39" s="25"/>
     </row>
-    <row r="40" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A40" s="24">
         <v>43012</v>
       </c>
@@ -34491,7 +34490,7 @@
       <c r="S41" s="25"/>
       <c r="T41" s="25"/>
     </row>
-    <row r="42" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A42" s="24">
         <v>43012</v>
       </c>
@@ -34575,7 +34574,7 @@
       <c r="S43" s="25"/>
       <c r="T43" s="25"/>
     </row>
-    <row r="44" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A44" s="24">
         <v>43012</v>
       </c>
@@ -34614,7 +34613,7 @@
       <c r="S44" s="25"/>
       <c r="T44" s="25"/>
     </row>
-    <row r="45" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A45" s="24">
         <v>43012</v>
       </c>
@@ -34655,7 +34654,7 @@
       <c r="S45" s="25"/>
       <c r="T45" s="25"/>
     </row>
-    <row r="46" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A46" s="24">
         <v>43012</v>
       </c>
@@ -34696,7 +34695,7 @@
       <c r="S46" s="25"/>
       <c r="T46" s="25"/>
     </row>
-    <row r="47" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A47" s="24">
         <v>43012</v>
       </c>
@@ -34784,7 +34783,7 @@
       <c r="S48" s="25"/>
       <c r="T48" s="25"/>
     </row>
-    <row r="49" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A49" s="24">
         <v>43012</v>
       </c>
@@ -34870,7 +34869,7 @@
       <c r="S50" s="25"/>
       <c r="T50" s="25"/>
     </row>
-    <row r="51" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A51" s="24">
         <v>43012</v>
       </c>
@@ -35003,7 +35002,7 @@
       <c r="S53" s="25"/>
       <c r="T53" s="25"/>
     </row>
-    <row r="54" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A54" s="24">
         <v>43012</v>
       </c>
@@ -35089,7 +35088,7 @@
       <c r="S55" s="25"/>
       <c r="T55" s="25"/>
     </row>
-    <row r="56" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A56" s="24">
         <v>43012</v>
       </c>
@@ -35128,7 +35127,7 @@
       <c r="S56" s="25"/>
       <c r="T56" s="25"/>
     </row>
-    <row r="57" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A57" s="24">
         <v>43012</v>
       </c>
@@ -35167,7 +35166,7 @@
       <c r="S57" s="25"/>
       <c r="T57" s="25"/>
     </row>
-    <row r="58" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A58" s="24">
         <v>43012</v>
       </c>
@@ -35251,7 +35250,7 @@
       <c r="S59" s="25"/>
       <c r="T59" s="25"/>
     </row>
-    <row r="60" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A60" s="24">
         <v>43012</v>
       </c>
@@ -35290,7 +35289,7 @@
       <c r="S60" s="25"/>
       <c r="T60" s="25"/>
     </row>
-    <row r="61" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A61" s="24">
         <v>43012</v>
       </c>
@@ -35329,7 +35328,7 @@
       <c r="S61" s="25"/>
       <c r="T61" s="25"/>
     </row>
-    <row r="62" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A62" s="24">
         <v>43012</v>
       </c>
@@ -35363,7 +35362,7 @@
       <c r="S62" s="25"/>
       <c r="T62" s="25"/>
     </row>
-    <row r="63" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A63" s="24">
         <v>43012</v>
       </c>
@@ -35402,7 +35401,7 @@
       <c r="S63" s="25"/>
       <c r="T63" s="25"/>
     </row>
-    <row r="64" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A64" s="24">
         <v>43012</v>
       </c>
@@ -35441,7 +35440,7 @@
       <c r="S64" s="25"/>
       <c r="T64" s="25"/>
     </row>
-    <row r="65" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A65" s="24">
         <v>43012</v>
       </c>
@@ -35529,7 +35528,7 @@
       <c r="S66" s="25"/>
       <c r="T66" s="25"/>
     </row>
-    <row r="67" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A67" s="24">
         <v>43012</v>
       </c>
@@ -35568,7 +35567,7 @@
       <c r="S67" s="25"/>
       <c r="T67" s="25"/>
     </row>
-    <row r="68" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A68" s="24">
         <v>43012</v>
       </c>
@@ -35607,7 +35606,7 @@
       <c r="S68" s="25"/>
       <c r="T68" s="25"/>
     </row>
-    <row r="69" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A69" s="24">
         <v>43012</v>
       </c>
@@ -35695,7 +35694,7 @@
       <c r="S70" s="25"/>
       <c r="T70" s="25"/>
     </row>
-    <row r="71" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A71" s="24">
         <v>43012</v>
       </c>
@@ -35734,7 +35733,7 @@
       <c r="S71" s="25"/>
       <c r="T71" s="25"/>
     </row>
-    <row r="72" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A72" s="24">
         <v>43012</v>
       </c>
@@ -35822,7 +35821,7 @@
       <c r="S73" s="25"/>
       <c r="T73" s="25"/>
     </row>
-    <row r="74" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A74" s="24">
         <v>43012</v>
       </c>
@@ -35861,7 +35860,7 @@
       <c r="S74" s="25"/>
       <c r="T74" s="25"/>
     </row>
-    <row r="75" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A75" s="24">
         <v>43012</v>
       </c>
@@ -35949,7 +35948,7 @@
       <c r="S76" s="25"/>
       <c r="T76" s="25"/>
     </row>
-    <row r="77" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A77" s="24">
         <v>43012</v>
       </c>
@@ -35990,7 +35989,7 @@
       <c r="S77" s="25"/>
       <c r="T77" s="25"/>
     </row>
-    <row r="78" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A78" s="24">
         <v>43012</v>
       </c>
@@ -36029,7 +36028,7 @@
       <c r="S78" s="25"/>
       <c r="T78" s="25"/>
     </row>
-    <row r="79" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A79" s="24">
         <v>43012</v>
       </c>
@@ -36068,7 +36067,7 @@
       <c r="S79" s="25"/>
       <c r="T79" s="25"/>
     </row>
-    <row r="80" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A80" s="24">
         <v>43012</v>
       </c>
@@ -36156,7 +36155,7 @@
       <c r="S81" s="25"/>
       <c r="T81" s="25"/>
     </row>
-    <row r="82" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A82" s="24">
         <v>43012</v>
       </c>
@@ -36342,7 +36341,7 @@
       <c r="S85" s="25"/>
       <c r="T85" s="25"/>
     </row>
-    <row r="86" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A86" s="24">
         <v>43012</v>
       </c>
@@ -36381,7 +36380,7 @@
       <c r="S86" s="25"/>
       <c r="T86" s="25"/>
     </row>
-    <row r="87" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A87" s="24">
         <v>43012</v>
       </c>
@@ -36420,7 +36419,7 @@
       <c r="S87" s="25"/>
       <c r="T87" s="25"/>
     </row>
-    <row r="88" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A88" s="24">
         <v>43012</v>
       </c>
@@ -36459,7 +36458,7 @@
       <c r="S88" s="25"/>
       <c r="T88" s="25"/>
     </row>
-    <row r="89" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A89" s="24">
         <v>43012</v>
       </c>
@@ -36498,7 +36497,7 @@
       <c r="S89" s="25"/>
       <c r="T89" s="25"/>
     </row>
-    <row r="90" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A90" s="24">
         <v>43012</v>
       </c>
@@ -36584,7 +36583,7 @@
       <c r="S91" s="25"/>
       <c r="T91" s="25"/>
     </row>
-    <row r="92" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A92" s="24">
         <v>43012</v>
       </c>
@@ -36672,7 +36671,7 @@
       <c r="S93" s="25"/>
       <c r="T93" s="25"/>
     </row>
-    <row r="94" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A94" s="24">
         <v>43012</v>
       </c>
@@ -36711,7 +36710,7 @@
       <c r="S94" s="25"/>
       <c r="T94" s="25"/>
     </row>
-    <row r="95" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A95" s="24">
         <v>43012</v>
       </c>
@@ -36799,7 +36798,7 @@
       <c r="S96" s="25"/>
       <c r="T96" s="25"/>
     </row>
-    <row r="97" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A97" s="24">
         <v>43012</v>
       </c>
@@ -36887,7 +36886,7 @@
       <c r="S98" s="25"/>
       <c r="T98" s="25"/>
     </row>
-    <row r="99" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A99" s="24">
         <v>43012</v>
       </c>
@@ -36926,7 +36925,7 @@
       <c r="S99" s="25"/>
       <c r="T99" s="25"/>
     </row>
-    <row r="100" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A100" s="24">
         <v>43012</v>
       </c>
@@ -37014,7 +37013,7 @@
       <c r="S101" s="25"/>
       <c r="T101" s="25"/>
     </row>
-    <row r="102" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A102" s="24">
         <v>43012</v>
       </c>
@@ -37100,7 +37099,7 @@
       <c r="S103" s="25"/>
       <c r="T103" s="25"/>
     </row>
-    <row r="104" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A104" s="24">
         <v>43012</v>
       </c>
@@ -37188,7 +37187,7 @@
       <c r="S105" s="25"/>
       <c r="T105" s="25"/>
     </row>
-    <row r="106" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A106" s="24">
         <v>43012</v>
       </c>
@@ -37227,7 +37226,7 @@
       <c r="S106" s="25"/>
       <c r="T106" s="25"/>
     </row>
-    <row r="107" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A107" s="24">
         <v>43012</v>
       </c>
@@ -37315,7 +37314,7 @@
       <c r="S108" s="25"/>
       <c r="T108" s="25"/>
     </row>
-    <row r="109" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A109" s="24">
         <v>43012</v>
       </c>
@@ -37403,7 +37402,7 @@
       <c r="S110" s="25"/>
       <c r="T110" s="25"/>
     </row>
-    <row r="111" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A111" s="24">
         <v>43012</v>
       </c>
@@ -37491,7 +37490,7 @@
       <c r="S112" s="25"/>
       <c r="T112" s="25"/>
     </row>
-    <row r="113" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A113" s="24">
         <v>43012</v>
       </c>
@@ -37530,7 +37529,7 @@
       <c r="S113" s="25"/>
       <c r="T113" s="25"/>
     </row>
-    <row r="114" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A114" s="24">
         <v>43012</v>
       </c>
@@ -37618,7 +37617,7 @@
       <c r="S115" s="25"/>
       <c r="T115" s="25"/>
     </row>
-    <row r="116" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A116" s="24">
         <v>43012</v>
       </c>
@@ -37657,7 +37656,7 @@
       <c r="S116" s="25"/>
       <c r="T116" s="25"/>
     </row>
-    <row r="117" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A117" s="24">
         <v>43012</v>
       </c>
@@ -37745,7 +37744,7 @@
       <c r="S118" s="25"/>
       <c r="T118" s="25"/>
     </row>
-    <row r="119" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A119" s="24">
         <v>43012</v>
       </c>
@@ -37786,7 +37785,7 @@
       <c r="S119" s="25"/>
       <c r="T119" s="25"/>
     </row>
-    <row r="120" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A120" s="24">
         <v>43012</v>
       </c>
@@ -37874,7 +37873,7 @@
       <c r="S121" s="25"/>
       <c r="T121" s="25"/>
     </row>
-    <row r="122" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A122" s="24">
         <v>43012</v>
       </c>
@@ -37962,7 +37961,7 @@
       <c r="S123" s="25"/>
       <c r="T123" s="25"/>
     </row>
-    <row r="124" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A124" s="24">
         <v>43012</v>
       </c>
@@ -38050,7 +38049,7 @@
       <c r="S125" s="25"/>
       <c r="T125" s="25"/>
     </row>
-    <row r="126" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A126" s="24">
         <v>43012</v>
       </c>
@@ -38089,7 +38088,7 @@
       <c r="S126" s="25"/>
       <c r="T126" s="25"/>
     </row>
-    <row r="127" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A127" s="24">
         <v>43012</v>
       </c>
@@ -38128,7 +38127,7 @@
       <c r="S127" s="25"/>
       <c r="T127" s="25"/>
     </row>
-    <row r="128" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A128" s="24">
         <v>43012</v>
       </c>
@@ -38167,7 +38166,7 @@
       <c r="S128" s="25"/>
       <c r="T128" s="25"/>
     </row>
-    <row r="129" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A129" s="24">
         <v>43012</v>
       </c>
@@ -38206,7 +38205,7 @@
       <c r="S129" s="25"/>
       <c r="T129" s="25"/>
     </row>
-    <row r="130" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A130" s="24">
         <v>43012</v>
       </c>
@@ -38245,7 +38244,7 @@
       <c r="S130" s="25"/>
       <c r="T130" s="25"/>
     </row>
-    <row r="131" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A131" s="24">
         <v>43012</v>
       </c>
@@ -38284,7 +38283,7 @@
       <c r="S131" s="25"/>
       <c r="T131" s="25"/>
     </row>
-    <row r="132" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A132" s="24">
         <v>43012</v>
       </c>
@@ -38323,7 +38322,7 @@
       <c r="S132" s="25"/>
       <c r="T132" s="25"/>
     </row>
-    <row r="133" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A133" s="24">
         <v>43012</v>
       </c>
@@ -38362,7 +38361,7 @@
       <c r="S133" s="25"/>
       <c r="T133" s="25"/>
     </row>
-    <row r="134" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A134" s="24">
         <v>43012</v>
       </c>
@@ -38450,7 +38449,7 @@
       <c r="S135" s="25"/>
       <c r="T135" s="25"/>
     </row>
-    <row r="136" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A136" s="24">
         <v>43012</v>
       </c>
@@ -38489,7 +38488,7 @@
       <c r="S136" s="25"/>
       <c r="T136" s="25"/>
     </row>
-    <row r="137" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A137" s="24">
         <v>43012</v>
       </c>
@@ -38577,7 +38576,7 @@
       <c r="S138" s="25"/>
       <c r="T138" s="25"/>
     </row>
-    <row r="139" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A139" s="24">
         <v>43012</v>
       </c>
@@ -38661,7 +38660,7 @@
       <c r="S140" s="25"/>
       <c r="T140" s="25"/>
     </row>
-    <row r="141" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A141" s="24">
         <v>43012</v>
       </c>
@@ -38700,7 +38699,7 @@
       <c r="S141" s="25"/>
       <c r="T141" s="25"/>
     </row>
-    <row r="142" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A142" s="24">
         <v>43012</v>
       </c>
@@ -38739,7 +38738,7 @@
       <c r="S142" s="25"/>
       <c r="T142" s="25"/>
     </row>
-    <row r="143" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A143" s="24">
         <v>43012</v>
       </c>
@@ -38829,7 +38828,7 @@
       <c r="S144" s="25"/>
       <c r="T144" s="25"/>
     </row>
-    <row r="145" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A145" s="24">
         <v>43012</v>
       </c>
@@ -38868,7 +38867,7 @@
       <c r="S145" s="25"/>
       <c r="T145" s="25"/>
     </row>
-    <row r="146" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A146" s="24">
         <v>43012</v>
       </c>
@@ -38909,7 +38908,7 @@
       <c r="S146" s="25"/>
       <c r="T146" s="25"/>
     </row>
-    <row r="147" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A147" s="24">
         <v>43012</v>
       </c>
@@ -38948,7 +38947,7 @@
       <c r="S147" s="25"/>
       <c r="T147" s="25"/>
     </row>
-    <row r="148" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A148" s="24">
         <v>43012</v>
       </c>
@@ -39036,7 +39035,7 @@
       <c r="S149" s="25"/>
       <c r="T149" s="25"/>
     </row>
-    <row r="150" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A150" s="24">
         <v>43012</v>
       </c>
@@ -39075,7 +39074,7 @@
       <c r="S150" s="25"/>
       <c r="T150" s="25"/>
     </row>
-    <row r="151" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A151" s="24">
         <v>43012</v>
       </c>
@@ -39114,7 +39113,7 @@
       <c r="S151" s="25"/>
       <c r="T151" s="25"/>
     </row>
-    <row r="152" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A152" s="24">
         <v>43012</v>
       </c>
@@ -39153,7 +39152,7 @@
       <c r="S152" s="25"/>
       <c r="T152" s="25"/>
     </row>
-    <row r="153" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A153" s="24">
         <v>43012</v>
       </c>
@@ -39192,7 +39191,7 @@
       <c r="S153" s="25"/>
       <c r="T153" s="25"/>
     </row>
-    <row r="154" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A154" s="24">
         <v>43012</v>
       </c>
@@ -39280,7 +39279,7 @@
       <c r="S155" s="25"/>
       <c r="T155" s="25"/>
     </row>
-    <row r="156" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A156" s="24">
         <v>43012</v>
       </c>
@@ -39319,7 +39318,7 @@
       <c r="S156" s="25"/>
       <c r="T156" s="25"/>
     </row>
-    <row r="157" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A157" s="24">
         <v>43012</v>
       </c>
@@ -39407,7 +39406,7 @@
       <c r="S158" s="25"/>
       <c r="T158" s="25"/>
     </row>
-    <row r="159" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A159" s="24">
         <v>43012</v>
       </c>
@@ -39446,7 +39445,7 @@
       <c r="S159" s="25"/>
       <c r="T159" s="25"/>
     </row>
-    <row r="160" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A160" s="24">
         <v>43012</v>
       </c>
@@ -39485,7 +39484,7 @@
       <c r="S160" s="25"/>
       <c r="T160" s="25"/>
     </row>
-    <row r="161" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A161" s="24">
         <v>43012</v>
       </c>
@@ -39519,7 +39518,7 @@
       <c r="S161" s="25"/>
       <c r="T161" s="25"/>
     </row>
-    <row r="162" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A162" s="24">
         <v>43012</v>
       </c>
@@ -39558,7 +39557,7 @@
       <c r="S162" s="25"/>
       <c r="T162" s="25"/>
     </row>
-    <row r="163" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A163" s="24">
         <v>43012</v>
       </c>
@@ -39599,7 +39598,7 @@
       <c r="S163" s="25"/>
       <c r="T163" s="25"/>
     </row>
-    <row r="164" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A164" s="24">
         <v>43012</v>
       </c>
@@ -39638,7 +39637,7 @@
       <c r="S164" s="25"/>
       <c r="T164" s="25"/>
     </row>
-    <row r="165" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A165" s="24">
         <v>43012</v>
       </c>
@@ -39677,7 +39676,7 @@
       <c r="S165" s="25"/>
       <c r="T165" s="25"/>
     </row>
-    <row r="166" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A166" s="24">
         <v>43012</v>
       </c>
@@ -39763,7 +39762,7 @@
       <c r="S167" s="25"/>
       <c r="T167" s="25"/>
     </row>
-    <row r="168" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A168" s="24">
         <v>43012</v>
       </c>
@@ -39802,7 +39801,7 @@
       <c r="S168" s="25"/>
       <c r="T168" s="25"/>
     </row>
-    <row r="169" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A169" s="24">
         <v>43012</v>
       </c>
@@ -39841,7 +39840,7 @@
       <c r="S169" s="25"/>
       <c r="T169" s="25"/>
     </row>
-    <row r="170" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A170" s="24">
         <v>43012</v>
       </c>
@@ -39880,7 +39879,7 @@
       <c r="S170" s="25"/>
       <c r="T170" s="25"/>
     </row>
-    <row r="171" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A171" s="24">
         <v>43012</v>
       </c>
@@ -39919,7 +39918,7 @@
       <c r="S171" s="25"/>
       <c r="T171" s="25"/>
     </row>
-    <row r="172" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A172" s="24">
         <v>43012</v>
       </c>
@@ -40005,7 +40004,7 @@
       <c r="S173" s="25"/>
       <c r="T173" s="25"/>
     </row>
-    <row r="174" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A174" s="24">
         <v>43012</v>
       </c>
@@ -40044,7 +40043,7 @@
       <c r="S174" s="25"/>
       <c r="T174" s="25"/>
     </row>
-    <row r="175" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A175" s="24">
         <v>43012</v>
       </c>
@@ -40083,7 +40082,7 @@
       <c r="S175" s="25"/>
       <c r="T175" s="25"/>
     </row>
-    <row r="176" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A176" s="24">
         <v>43012</v>
       </c>
@@ -40216,7 +40215,7 @@
       <c r="S178" s="25"/>
       <c r="T178" s="25"/>
     </row>
-    <row r="179" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A179" s="24">
         <v>43012</v>
       </c>
@@ -40302,7 +40301,7 @@
       <c r="S180" s="25"/>
       <c r="T180" s="25"/>
     </row>
-    <row r="181" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A181" s="24">
         <v>43012</v>
       </c>
@@ -40388,7 +40387,7 @@
       <c r="S182" s="25"/>
       <c r="T182" s="25"/>
     </row>
-    <row r="183" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A183" s="24">
         <v>43012</v>
       </c>
@@ -40427,7 +40426,7 @@
       <c r="S183" s="25"/>
       <c r="T183" s="25"/>
     </row>
-    <row r="184" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A184" s="24">
         <v>43012</v>
       </c>
@@ -40466,7 +40465,7 @@
       <c r="S184" s="25"/>
       <c r="T184" s="25"/>
     </row>
-    <row r="185" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A185" s="24">
         <v>43012</v>
       </c>
@@ -40505,7 +40504,7 @@
       <c r="S185" s="25"/>
       <c r="T185" s="25"/>
     </row>
-    <row r="186" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A186" s="24">
         <v>43012</v>
       </c>
@@ -40544,7 +40543,7 @@
       <c r="S186" s="25"/>
       <c r="T186" s="25"/>
     </row>
-    <row r="187" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A187" s="24">
         <v>43012</v>
       </c>
@@ -40630,7 +40629,7 @@
       <c r="S188" s="25"/>
       <c r="T188" s="25"/>
     </row>
-    <row r="189" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A189" s="24">
         <v>43012</v>
       </c>
@@ -40716,7 +40715,7 @@
       <c r="S190" s="25"/>
       <c r="T190" s="25"/>
     </row>
-    <row r="191" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A191" s="24">
         <v>43012</v>
       </c>
@@ -40847,7 +40846,7 @@
       <c r="S193" s="25"/>
       <c r="T193" s="25"/>
     </row>
-    <row r="194" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A194" s="24">
         <v>43012</v>
       </c>
@@ -40933,7 +40932,7 @@
       <c r="S195" s="25"/>
       <c r="T195" s="25"/>
     </row>
-    <row r="196" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A196" s="24">
         <v>43012</v>
       </c>
@@ -41019,7 +41018,7 @@
       <c r="S197" s="25"/>
       <c r="T197" s="25"/>
     </row>
-    <row r="198" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A198" s="24">
         <v>43012</v>
       </c>
@@ -41058,7 +41057,7 @@
       <c r="S198" s="25"/>
       <c r="T198" s="25"/>
     </row>
-    <row r="199" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A199" s="24">
         <v>43012</v>
       </c>
@@ -41142,7 +41141,7 @@
       <c r="S200" s="25"/>
       <c r="T200" s="25"/>
     </row>
-    <row r="201" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A201" s="24">
         <v>43012</v>
       </c>
@@ -41181,7 +41180,7 @@
       <c r="S201" s="25"/>
       <c r="T201" s="25"/>
     </row>
-    <row r="202" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A202" s="24">
         <v>43012</v>
       </c>
@@ -41220,7 +41219,7 @@
       <c r="S202" s="25"/>
       <c r="T202" s="25"/>
     </row>
-    <row r="203" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A203" s="24">
         <v>43012</v>
       </c>
@@ -41306,7 +41305,7 @@
       <c r="S204" s="25"/>
       <c r="T204" s="25"/>
     </row>
-    <row r="205" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A205" s="24">
         <v>43012</v>
       </c>
@@ -41392,7 +41391,7 @@
       <c r="S206" s="25"/>
       <c r="T206" s="25"/>
     </row>
-    <row r="207" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A207" s="24">
         <v>43012</v>
       </c>
@@ -41431,7 +41430,7 @@
       <c r="S207" s="25"/>
       <c r="T207" s="25"/>
     </row>
-    <row r="208" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A208" s="24">
         <v>43012</v>
       </c>
@@ -41470,7 +41469,7 @@
       <c r="S208" s="25"/>
       <c r="T208" s="25"/>
     </row>
-    <row r="209" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A209" s="24">
         <v>43012</v>
       </c>
@@ -41509,7 +41508,7 @@
       <c r="S209" s="25"/>
       <c r="T209" s="25"/>
     </row>
-    <row r="210" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A210" s="24">
         <v>43012</v>
       </c>
@@ -41548,7 +41547,7 @@
       <c r="S210" s="25"/>
       <c r="T210" s="25"/>
     </row>
-    <row r="211" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A211" s="24">
         <v>43012</v>
       </c>
@@ -41587,7 +41586,7 @@
       <c r="S211" s="25"/>
       <c r="T211" s="25"/>
     </row>
-    <row r="212" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A212" s="24">
         <v>43012</v>
       </c>
@@ -41626,7 +41625,7 @@
       <c r="S212" s="25"/>
       <c r="T212" s="25"/>
     </row>
-    <row r="213" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A213" s="24">
         <v>43012</v>
       </c>
@@ -41712,7 +41711,7 @@
       <c r="S214" s="25"/>
       <c r="T214" s="25"/>
     </row>
-    <row r="215" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A215" s="24">
         <v>43012</v>
       </c>
@@ -41751,7 +41750,7 @@
       <c r="S215" s="25"/>
       <c r="T215" s="25"/>
     </row>
-    <row r="216" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A216" s="24">
         <v>43012</v>
       </c>
@@ -41790,7 +41789,7 @@
       <c r="S216" s="25"/>
       <c r="T216" s="25"/>
     </row>
-    <row r="217" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A217" s="24">
         <v>43012</v>
       </c>
@@ -41876,7 +41875,7 @@
       <c r="S218" s="25"/>
       <c r="T218" s="25"/>
     </row>
-    <row r="219" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A219" s="24">
         <v>43012</v>
       </c>
@@ -41915,7 +41914,7 @@
       <c r="S219" s="25"/>
       <c r="T219" s="25"/>
     </row>
-    <row r="220" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A220" s="24">
         <v>43012</v>
       </c>
@@ -41954,7 +41953,7 @@
       <c r="S220" s="25"/>
       <c r="T220" s="25"/>
     </row>
-    <row r="221" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A221" s="24">
         <v>43012</v>
       </c>
@@ -42040,7 +42039,7 @@
       <c r="S222" s="25"/>
       <c r="T222" s="25"/>
     </row>
-    <row r="223" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A223" s="24">
         <v>43012</v>
       </c>
@@ -42126,7 +42125,7 @@
       <c r="S224" s="25"/>
       <c r="T224" s="25"/>
     </row>
-    <row r="225" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A225" s="24">
         <v>43012</v>
       </c>
@@ -42165,7 +42164,7 @@
       <c r="S225" s="25"/>
       <c r="T225" s="25"/>
     </row>
-    <row r="226" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A226" s="24">
         <v>43012</v>
       </c>
@@ -42204,7 +42203,7 @@
       <c r="S226" s="25"/>
       <c r="T226" s="25"/>
     </row>
-    <row r="227" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A227" s="24">
         <v>43012</v>
       </c>
@@ -42288,7 +42287,7 @@
       <c r="S228" s="25"/>
       <c r="T228" s="25"/>
     </row>
-    <row r="229" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A229" s="24">
         <v>43012</v>
       </c>
@@ -42327,7 +42326,7 @@
       <c r="S229" s="25"/>
       <c r="T229" s="25"/>
     </row>
-    <row r="230" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A230" s="24">
         <v>43012</v>
       </c>
@@ -42366,7 +42365,7 @@
       <c r="S230" s="25"/>
       <c r="T230" s="25"/>
     </row>
-    <row r="231" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A231" s="24">
         <v>43012</v>
       </c>
@@ -42405,7 +42404,7 @@
       <c r="S231" s="25"/>
       <c r="T231" s="25"/>
     </row>
-    <row r="232" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A232" s="24">
         <v>43012</v>
       </c>
@@ -42444,7 +42443,7 @@
       <c r="S232" s="25"/>
       <c r="T232" s="25"/>
     </row>
-    <row r="233" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A233" s="24">
         <v>43012</v>
       </c>
@@ -42483,7 +42482,7 @@
       <c r="S233" s="25"/>
       <c r="T233" s="25"/>
     </row>
-    <row r="234" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A234" s="24">
         <v>43012</v>
       </c>
@@ -42522,7 +42521,7 @@
       <c r="S234" s="25"/>
       <c r="T234" s="25"/>
     </row>
-    <row r="235" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A235" s="24">
         <v>43012</v>
       </c>
@@ -42608,7 +42607,7 @@
       <c r="S236" s="25"/>
       <c r="T236" s="25"/>
     </row>
-    <row r="237" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A237" s="24">
         <v>43012</v>
       </c>
@@ -42739,7 +42738,7 @@
       <c r="S239" s="25"/>
       <c r="T239" s="25"/>
     </row>
-    <row r="240" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A240" s="24">
         <v>43012</v>
       </c>
@@ -42872,7 +42871,7 @@
       <c r="S242" s="25"/>
       <c r="T242" s="25"/>
     </row>
-    <row r="243" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A243" s="24">
         <v>43012</v>
       </c>
@@ -42958,7 +42957,7 @@
       <c r="S244" s="25"/>
       <c r="T244" s="25"/>
     </row>
-    <row r="245" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A245" s="24">
         <v>43012</v>
       </c>
@@ -43044,7 +43043,7 @@
       <c r="S246" s="25"/>
       <c r="T246" s="25"/>
     </row>
-    <row r="247" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A247" s="24">
         <v>43012</v>
       </c>
@@ -43130,7 +43129,7 @@
       <c r="S248" s="25"/>
       <c r="T248" s="25"/>
     </row>
-    <row r="249" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A249" s="24">
         <v>43012</v>
       </c>
@@ -43216,7 +43215,7 @@
       <c r="S250" s="25"/>
       <c r="T250" s="25"/>
     </row>
-    <row r="251" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A251" s="24">
         <v>43012</v>
       </c>
@@ -43302,7 +43301,7 @@
       <c r="S252" s="25"/>
       <c r="T252" s="25"/>
     </row>
-    <row r="253" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A253" s="24">
         <v>43012</v>
       </c>
@@ -43341,7 +43340,7 @@
       <c r="S253" s="25"/>
       <c r="T253" s="25"/>
     </row>
-    <row r="254" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A254" s="24">
         <v>43012</v>
       </c>
@@ -43380,7 +43379,7 @@
       <c r="S254" s="25"/>
       <c r="T254" s="25"/>
     </row>
-    <row r="255" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A255" s="24">
         <v>43012</v>
       </c>
@@ -43419,7 +43418,7 @@
       <c r="S255" s="25"/>
       <c r="T255" s="25"/>
     </row>
-    <row r="256" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A256" s="24">
         <v>43012</v>
       </c>
@@ -43456,7 +43455,7 @@
       <c r="S256" s="25"/>
       <c r="T256" s="25"/>
     </row>
-    <row r="257" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A257" s="24">
         <v>43012</v>
       </c>
@@ -43540,7 +43539,7 @@
       <c r="S258" s="25"/>
       <c r="T258" s="25"/>
     </row>
-    <row r="259" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A259" s="24">
         <v>43012</v>
       </c>
@@ -43624,7 +43623,7 @@
       <c r="S260" s="25"/>
       <c r="T260" s="25"/>
     </row>
-    <row r="261" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A261" s="24">
         <v>43012</v>
       </c>
@@ -43753,7 +43752,7 @@
       <c r="S263" s="25"/>
       <c r="T263" s="25"/>
     </row>
-    <row r="264" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A264" s="24">
         <v>43012</v>
       </c>
@@ -43792,7 +43791,7 @@
       <c r="S264" s="25"/>
       <c r="T264" s="25"/>
     </row>
-    <row r="265" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A265" s="24">
         <v>43012</v>
       </c>
@@ -43878,7 +43877,7 @@
       <c r="S266" s="25"/>
       <c r="T266" s="25"/>
     </row>
-    <row r="267" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A267" s="24">
         <v>43012</v>
       </c>
@@ -43962,7 +43961,7 @@
       <c r="S268" s="25"/>
       <c r="T268" s="25"/>
     </row>
-    <row r="269" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A269" s="24">
         <v>43012</v>
       </c>
@@ -44046,7 +44045,7 @@
       <c r="S270" s="25"/>
       <c r="T270" s="25"/>
     </row>
-    <row r="271" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A271" s="24">
         <v>43012</v>
       </c>
@@ -44130,7 +44129,7 @@
       <c r="S272" s="25"/>
       <c r="T272" s="25"/>
     </row>
-    <row r="273" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A273" s="24">
         <v>43012</v>
       </c>
@@ -44214,7 +44213,7 @@
       <c r="S274" s="25"/>
       <c r="T274" s="25"/>
     </row>
-    <row r="275" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A275" s="24">
         <v>43012</v>
       </c>
@@ -44253,7 +44252,7 @@
       <c r="S275" s="25"/>
       <c r="T275" s="25"/>
     </row>
-    <row r="276" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A276" s="24">
         <v>43012</v>
       </c>
@@ -44292,7 +44291,7 @@
       <c r="S276" s="25"/>
       <c r="T276" s="25"/>
     </row>
-    <row r="277" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A277" s="24">
         <v>43012</v>
       </c>
@@ -44376,7 +44375,7 @@
       <c r="S278" s="25"/>
       <c r="T278" s="25"/>
     </row>
-    <row r="279" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A279" s="24">
         <v>43012</v>
       </c>
@@ -44460,7 +44459,7 @@
       <c r="S280" s="25"/>
       <c r="T280" s="25"/>
     </row>
-    <row r="281" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A281" s="24">
         <v>43012</v>
       </c>
@@ -44499,7 +44498,7 @@
       <c r="S281" s="25"/>
       <c r="T281" s="25"/>
     </row>
-    <row r="282" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A282" s="24">
         <v>43012</v>
       </c>
@@ -44538,7 +44537,7 @@
       <c r="S282" s="25"/>
       <c r="T282" s="25"/>
     </row>
-    <row r="283" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A283" s="24">
         <v>43012</v>
       </c>
@@ -44577,7 +44576,7 @@
       <c r="S283" s="25"/>
       <c r="T283" s="25"/>
     </row>
-    <row r="284" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A284" s="24">
         <v>43012</v>
       </c>
@@ -44706,7 +44705,7 @@
       <c r="S286" s="25"/>
       <c r="T286" s="25"/>
     </row>
-    <row r="287" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A287" s="24">
         <v>43012</v>
       </c>
@@ -44745,7 +44744,7 @@
       <c r="S287" s="25"/>
       <c r="T287" s="25"/>
     </row>
-    <row r="288" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A288" s="24">
         <v>43012</v>
       </c>
@@ -44779,7 +44778,7 @@
       <c r="S288" s="25"/>
       <c r="T288" s="25"/>
     </row>
-    <row r="289" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A289" s="24">
         <v>43012</v>
       </c>
@@ -44863,7 +44862,7 @@
       <c r="S290" s="25"/>
       <c r="T290" s="25"/>
     </row>
-    <row r="291" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A291" s="24">
         <v>43012</v>
       </c>
@@ -44947,7 +44946,7 @@
       <c r="S292" s="25"/>
       <c r="T292" s="25"/>
     </row>
-    <row r="293" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A293" s="24">
         <v>43012</v>
       </c>
@@ -44986,7 +44985,7 @@
       <c r="S293" s="25"/>
       <c r="T293" s="25"/>
     </row>
-    <row r="294" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A294" s="24">
         <v>43012</v>
       </c>
@@ -45160,7 +45159,7 @@
       <c r="S297" s="25"/>
       <c r="T297" s="25"/>
     </row>
-    <row r="298" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A298" s="24">
         <v>43012</v>
       </c>
@@ -45244,7 +45243,7 @@
       <c r="S299" s="25"/>
       <c r="T299" s="25"/>
     </row>
-    <row r="300" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A300" s="24">
         <v>43012</v>
       </c>
@@ -45373,7 +45372,7 @@
       <c r="S302" s="25"/>
       <c r="T302" s="25"/>
     </row>
-    <row r="303" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A303" s="24">
         <v>43012</v>
       </c>
@@ -45457,7 +45456,7 @@
       <c r="S304" s="25"/>
       <c r="T304" s="25"/>
     </row>
-    <row r="305" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A305" s="24">
         <v>43012</v>
       </c>
@@ -45496,7 +45495,7 @@
       <c r="S305" s="25"/>
       <c r="T305" s="25"/>
     </row>
-    <row r="306" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A306" s="24">
         <v>43012</v>
       </c>
@@ -45537,7 +45536,7 @@
       <c r="S306" s="25"/>
       <c r="T306" s="25"/>
     </row>
-    <row r="307" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A307" s="24">
         <v>43012</v>
       </c>
@@ -45621,7 +45620,7 @@
       <c r="S308" s="25"/>
       <c r="T308" s="25"/>
     </row>
-    <row r="309" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A309" s="24">
         <v>43012</v>
       </c>
@@ -45705,7 +45704,7 @@
       <c r="S310" s="25"/>
       <c r="T310" s="25"/>
     </row>
-    <row r="311" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A311" s="24">
         <v>43012</v>
       </c>
@@ -45789,7 +45788,7 @@
       <c r="S312" s="25"/>
       <c r="T312" s="25"/>
     </row>
-    <row r="313" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A313" s="24">
         <v>43012</v>
       </c>
@@ -45873,7 +45872,7 @@
       <c r="S314" s="25"/>
       <c r="T314" s="25"/>
     </row>
-    <row r="315" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A315" s="24">
         <v>43012</v>
       </c>
@@ -46002,7 +46001,7 @@
       <c r="S317" s="25"/>
       <c r="T317" s="25"/>
     </row>
-    <row r="318" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A318" s="24">
         <v>43012</v>
       </c>
@@ -46086,7 +46085,7 @@
       <c r="S319" s="25"/>
       <c r="T319" s="25"/>
     </row>
-    <row r="320" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A320" s="24">
         <v>43012</v>
       </c>
@@ -46125,7 +46124,7 @@
       <c r="S320" s="25"/>
       <c r="T320" s="25"/>
     </row>
-    <row r="321" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A321" s="24">
         <v>43012</v>
       </c>
@@ -46209,7 +46208,7 @@
       <c r="S322" s="25"/>
       <c r="T322" s="25"/>
     </row>
-    <row r="323" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A323" s="24">
         <v>43012</v>
       </c>
@@ -46248,7 +46247,7 @@
       <c r="S323" s="25"/>
       <c r="T323" s="25"/>
     </row>
-    <row r="324" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A324" s="24">
         <v>43012</v>
       </c>
@@ -46287,7 +46286,7 @@
       <c r="S324" s="25"/>
       <c r="T324" s="25"/>
     </row>
-    <row r="325" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A325" s="24">
         <v>43012</v>
       </c>
@@ -46371,7 +46370,7 @@
       <c r="S326" s="25"/>
       <c r="T326" s="25"/>
     </row>
-    <row r="327" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A327" s="24">
         <v>43012</v>
       </c>
@@ -46455,7 +46454,7 @@
       <c r="S328" s="25"/>
       <c r="T328" s="25"/>
     </row>
-    <row r="329" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A329" s="24">
         <v>43012</v>
       </c>
@@ -46494,7 +46493,7 @@
       <c r="S329" s="25"/>
       <c r="T329" s="25"/>
     </row>
-    <row r="330" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A330" s="24">
         <v>43012</v>
       </c>
@@ -46578,7 +46577,7 @@
       <c r="S331" s="25"/>
       <c r="T331" s="25"/>
     </row>
-    <row r="332" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A332" s="24">
         <v>43012</v>
       </c>
@@ -46662,7 +46661,7 @@
       <c r="S333" s="25"/>
       <c r="T333" s="25"/>
     </row>
-    <row r="334" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A334" s="24">
         <v>43012</v>
       </c>
@@ -46701,7 +46700,7 @@
       <c r="S334" s="25"/>
       <c r="T334" s="25"/>
     </row>
-    <row r="335" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A335" s="24">
         <v>43012</v>
       </c>
@@ -46742,7 +46741,7 @@
       <c r="S335" s="25"/>
       <c r="T335" s="25"/>
     </row>
-    <row r="336" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A336" s="24">
         <v>43012</v>
       </c>
@@ -46826,7 +46825,7 @@
       <c r="S337" s="25"/>
       <c r="T337" s="25"/>
     </row>
-    <row r="338" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A338" s="24">
         <v>43012</v>
       </c>
@@ -46910,7 +46909,7 @@
       <c r="S339" s="25"/>
       <c r="T339" s="25"/>
     </row>
-    <row r="340" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A340" s="24">
         <v>43012</v>
       </c>
@@ -46949,7 +46948,7 @@
       <c r="S340" s="25"/>
       <c r="T340" s="25"/>
     </row>
-    <row r="341" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A341" s="24">
         <v>43012</v>
       </c>
@@ -46992,7 +46991,7 @@
       <c r="S341" s="25"/>
       <c r="T341" s="25"/>
     </row>
-    <row r="342" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A342" s="24">
         <v>43012</v>
       </c>
@@ -47076,7 +47075,7 @@
       <c r="S343" s="25"/>
       <c r="T343" s="25"/>
     </row>
-    <row r="344" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A344" s="24">
         <v>43012</v>
       </c>
@@ -47115,7 +47114,7 @@
       <c r="S344" s="25"/>
       <c r="T344" s="25"/>
     </row>
-    <row r="345" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A345" s="24">
         <v>43012</v>
       </c>
@@ -47154,7 +47153,7 @@
       <c r="S345" s="25"/>
       <c r="T345" s="25"/>
     </row>
-    <row r="346" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A346" s="24">
         <v>43012</v>
       </c>
@@ -47238,7 +47237,7 @@
       <c r="S347" s="25"/>
       <c r="T347" s="25"/>
     </row>
-    <row r="348" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A348" s="24">
         <v>43012</v>
       </c>
@@ -47322,7 +47321,7 @@
       <c r="S349" s="25"/>
       <c r="T349" s="25"/>
     </row>
-    <row r="350" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A350" s="24">
         <v>43012</v>
       </c>
@@ -47361,7 +47360,7 @@
       <c r="S350" s="25"/>
       <c r="T350" s="25"/>
     </row>
-    <row r="351" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A351" s="24">
         <v>43012</v>
       </c>
@@ -47400,7 +47399,7 @@
       <c r="S351" s="25"/>
       <c r="T351" s="25"/>
     </row>
-    <row r="352" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A352" s="24">
         <v>43012</v>
       </c>
@@ -47484,7 +47483,7 @@
       <c r="S353" s="25"/>
       <c r="T353" s="25"/>
     </row>
-    <row r="354" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A354" s="24">
         <v>43012</v>
       </c>
@@ -47568,7 +47567,7 @@
       <c r="S355" s="25"/>
       <c r="T355" s="25"/>
     </row>
-    <row r="356" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A356" s="24">
         <v>43012</v>
       </c>
@@ -47652,7 +47651,7 @@
       <c r="S357" s="25"/>
       <c r="T357" s="25"/>
     </row>
-    <row r="358" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A358" s="24">
         <v>43012</v>
       </c>
@@ -47736,7 +47735,7 @@
       <c r="S359" s="25"/>
       <c r="T359" s="25"/>
     </row>
-    <row r="360" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A360" s="24">
         <v>43012</v>
       </c>
@@ -47775,7 +47774,7 @@
       <c r="S360" s="25"/>
       <c r="T360" s="25"/>
     </row>
-    <row r="361" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A361" s="24">
         <v>43012</v>
       </c>
@@ -47809,20 +47808,14 @@
       <c r="S361" s="25"/>
       <c r="T361" s="25"/>
     </row>
-    <row r="362" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:20" x14ac:dyDescent="0.35">
       <c r="G362" s="25">
         <f>SUM(G2:G361)</f>
         <v>10000</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:T362" xr:uid="{00000000-0009-0000-0000-000003000000}">
-    <filterColumn colId="7">
-      <filters>
-        <filter val="HC"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:T362" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
